--- a/src/test/resources/SmokeTests.xlsx
+++ b/src/test/resources/SmokeTests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemantojha/JavaProjects/SPHNX_NEW/resources/scenarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hemantojha/JavaProjects/ReadExcelsAnywhere/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="1500" windowWidth="33040" windowHeight="16980"/>
+    <workbookView xWindow="420" yWindow="820" windowWidth="22460" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeTest" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="184">
   <si>
     <t>Parameters</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>You logged into a secure area!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d    </t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
@@ -696,6 +705,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,7 +806,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="48">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -819,6 +838,16 @@
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Loop" xfId="4"/>
     <cellStyle name="Loop Parameter" xfId="5"/>
@@ -1103,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:AH159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,117 +1146,166 @@
     <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E1" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="H1" s="4">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K1" s="4">
         <v>4</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L1" s="4">
         <v>5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M1" s="4">
         <v>6</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N1" s="4">
         <v>7</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O1" s="4">
         <v>8</v>
       </c>
-      <c r="P2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4">
+      <c r="P1" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="S1" s="4">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4">
+        <v>3</v>
+      </c>
+      <c r="V1" s="4">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4">
+        <v>5</v>
+      </c>
+      <c r="X1" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -1236,10 +1314,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -1259,7 +1337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1267,19 +1345,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1287,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>12</v>
@@ -1298,11 +1379,8 @@
       <c r="H7" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1310,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>12</v>
@@ -1321,8 +1399,11 @@
       <c r="H8" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1330,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>12</v>
@@ -1341,75 +1422,75 @@
       <c r="H9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1429,65 +1510,62 @@
         <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -1496,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1507,82 +1585,82 @@
         <v>10</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -1601,8 +1679,11 @@
       <c r="H21" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AE21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1610,118 +1691,121 @@
         <v>10</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="I24" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
@@ -1729,10 +1813,10 @@
         <v>12</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C28" s="8" t="s">
         <v>9</v>
       </c>
@@ -1749,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
@@ -1760,66 +1844,66 @@
         <v>10</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
@@ -1836,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -1847,16 +1931,19 @@
         <v>10</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F33" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -1867,19 +1954,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -1890,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -1899,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -1910,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -1919,52 +2003,52 @@
         <v>12</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="A37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
@@ -1974,16 +2058,19 @@
         <v>10</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="I39" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -2003,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
         <v>172</v>
@@ -2017,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F41" s="7">
         <v>2</v>
@@ -2026,10 +2113,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2040,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>12</v>
@@ -2051,116 +2138,113 @@
       <c r="H42" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I42" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>174</v>
-      </c>
+      <c r="A43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="C44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="7">
-        <v>4</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" t="s">
-        <v>172</v>
-      </c>
-      <c r="J45" t="s">
-        <v>179</v>
-      </c>
-      <c r="K45" t="s">
-        <v>180</v>
-      </c>
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="C46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>11</v>
+      <c r="E47" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
@@ -2168,8 +2252,8 @@
       <c r="G47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>13</v>
+      <c r="H47" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -2179,17 +2263,20 @@
       <c r="D48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>14</v>
+      <c r="E48" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -2209,10 +2296,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -2223,19 +2310,16 @@
         <v>10</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -2255,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -2275,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -2285,17 +2369,20 @@
       <c r="D53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>14</v>
+      <c r="E53" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="F53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -2305,8 +2392,8 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>22</v>
+      <c r="E54" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F54" s="7">
         <v>2</v>
@@ -2315,10 +2402,10 @@
         <v>12</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -2338,10 +2425,10 @@
         <v>12</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -2352,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F56" s="7">
         <v>2</v>
@@ -2361,10 +2448,10 @@
         <v>12</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -2375,19 +2462,16 @@
         <v>10</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>31</v>
+      <c r="H57" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -2398,83 +2482,86 @@
         <v>10</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>32</v>
+      <c r="H58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="7">
-        <v>2</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
+      <c r="C60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>119</v>
+      <c r="H61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -2494,10 +2581,10 @@
         <v>12</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -2508,19 +2595,16 @@
         <v>10</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -2540,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -2560,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -2570,17 +2654,20 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>14</v>
+      <c r="E66" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="F66" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -2590,8 +2677,8 @@
       <c r="D67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>22</v>
+      <c r="E67" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F67" s="7">
         <v>2</v>
@@ -2600,10 +2687,10 @@
         <v>12</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -2623,10 +2710,10 @@
         <v>12</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -2637,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F69" s="7">
         <v>2</v>
@@ -2646,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -2660,19 +2747,16 @@
         <v>10</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>31</v>
+      <c r="H70" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -2683,83 +2767,83 @@
         <v>10</v>
       </c>
       <c r="E71" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="7">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="7">
-        <v>2</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C74" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>110</v>
+      <c r="G74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -2769,17 +2853,20 @@
       <c r="D75" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>14</v>
+      <c r="E75" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F75" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -2799,10 +2886,10 @@
         <v>12</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -2813,75 +2900,72 @@
         <v>10</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F77" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C78" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="18" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="11">
+        <v>3</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" s="14">
+        <v>2</v>
+      </c>
+      <c r="J78" s="14">
+        <v>5</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="7">
-        <v>1</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="11">
-        <v>3</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="14">
-        <v>2</v>
-      </c>
-      <c r="J79" s="14">
-        <v>5</v>
-      </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C80" s="8" t="s">
@@ -2900,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -2910,17 +2994,20 @@
       <c r="D81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>14</v>
+      <c r="E81" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="F81" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -2930,8 +3017,8 @@
       <c r="D82" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="19" t="s">
-        <v>22</v>
+      <c r="E82" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F82" s="7">
         <v>2</v>
@@ -2940,10 +3027,10 @@
         <v>12</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -2963,10 +3050,10 @@
         <v>12</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -2977,19 +3064,16 @@
         <v>10</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>45</v>
+      <c r="H84" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -3000,199 +3084,199 @@
         <v>10</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F85" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>32</v>
+      <c r="H85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C86" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F86" s="7">
-        <v>2</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
+      <c r="C87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="A88" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="7">
-        <v>1</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="7">
+        <v>2</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="18" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="7">
-        <v>1</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="9" t="s">
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C91" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="7">
-        <v>2</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="10" t="s">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="7">
-        <v>1</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
@@ -3203,103 +3287,103 @@
         <v>48</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F94" s="7">
-        <v>1</v>
-      </c>
-      <c r="G94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="I94" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C95" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F95" s="7">
-        <v>2</v>
-      </c>
-      <c r="G95" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I95" s="10" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C96" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F96" s="7">
-        <v>1</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="A96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
+      <c r="C97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>114</v>
+      <c r="G98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
@@ -3310,103 +3394,103 @@
         <v>48</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="I99" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C101" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F101" s="7">
-        <v>1</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="A101" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
+      <c r="C102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>11</v>
+      <c r="E103" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
@@ -3416,17 +3500,20 @@
       <c r="D104" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="19" t="s">
-        <v>14</v>
+      <c r="E104" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F104" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
@@ -3446,10 +3533,10 @@
         <v>12</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
@@ -3460,73 +3547,70 @@
         <v>10</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F106" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C107" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="18" t="s">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="11">
+        <v>3</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" s="14"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="7">
-        <v>1</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" s="11">
-        <v>3</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C109" s="8" t="s">
@@ -3545,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
@@ -3555,17 +3639,20 @@
       <c r="D110" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>14</v>
+      <c r="E110" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="F110" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
@@ -3575,8 +3662,8 @@
       <c r="D111" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="19" t="s">
-        <v>22</v>
+      <c r="E111" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F111" s="7">
         <v>2</v>
@@ -3585,10 +3672,10 @@
         <v>12</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
@@ -3608,10 +3695,10 @@
         <v>12</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
@@ -3622,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F113" s="7">
         <v>2</v>
@@ -3631,10 +3718,10 @@
         <v>12</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
@@ -3645,19 +3732,16 @@
         <v>10</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F114" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>53</v>
+      <c r="H114" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
@@ -3668,93 +3752,96 @@
         <v>10</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F115" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="9" t="s">
-        <v>32</v>
+      <c r="H115" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" s="7">
-        <v>2</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="11">
-        <v>0</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
+      <c r="A117" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
+      <c r="C118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C119" s="7" t="s">
@@ -3764,19 +3851,22 @@
         <v>48</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F119" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H119" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>57</v>
+      <c r="H119" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -3787,22 +3877,22 @@
         <v>48</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F120" s="7">
         <v>3</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
@@ -3813,23 +3903,17 @@
         <v>48</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F121" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I121" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C122" s="7" t="s">
@@ -3839,16 +3923,19 @@
         <v>48</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F122" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -3859,61 +3946,61 @@
         <v>48</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F123" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C124" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="7">
-        <v>0</v>
-      </c>
-      <c r="G124" s="7" t="s">
+      <c r="A124" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="7">
+        <v>2</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
+      <c r="H125" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C126" s="7" t="s">
@@ -3923,19 +4010,22 @@
         <v>48</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F126" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H126" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>57</v>
+      <c r="H126" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
@@ -3946,7 +4036,7 @@
         <v>48</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F127" s="7">
         <v>3</v>
@@ -3954,15 +4044,9 @@
       <c r="G127" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C128" s="7" t="s">
@@ -3972,17 +4056,17 @@
         <v>48</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F128" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
+      <c r="H128" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C129" s="7" t="s">
@@ -3992,16 +4076,19 @@
         <v>48</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F129" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
@@ -4012,120 +4099,123 @@
         <v>48</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F130" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H130" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C131" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" s="7">
-        <v>0</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A131" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
+      <c r="C132" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" s="7">
+        <v>2</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C133" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F133" s="7">
-        <v>2</v>
-      </c>
-      <c r="G133" s="7" t="s">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="11">
+        <v>3</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I133" s="14">
+        <v>2</v>
+      </c>
+      <c r="J133" s="14">
+        <v>4</v>
+      </c>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134" s="7">
+        <v>3</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H133" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F134" s="11">
-        <v>3</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I134" s="14">
-        <v>2</v>
-      </c>
-      <c r="J134" s="14">
-        <v>4</v>
-      </c>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
-      <c r="P134" s="11"/>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="11"/>
+      <c r="H134" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C135" s="7" t="s">
@@ -4135,7 +4225,7 @@
         <v>48</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F135" s="7">
         <v>3</v>
@@ -4143,15 +4233,9 @@
       <c r="G135" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H135" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C136" s="7" t="s">
@@ -4161,17 +4245,17 @@
         <v>48</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F136" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
+      <c r="H136" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C137" s="7" t="s">
@@ -4181,177 +4265,183 @@
         <v>48</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F137" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C138" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138" s="7">
-        <v>2</v>
-      </c>
-      <c r="G138" s="8" t="s">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="11">
+        <v>0</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H138" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11" t="s">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C141" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="7">
+        <v>5</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L141" s="10"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E139" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F139" s="11">
-        <v>0</v>
-      </c>
-      <c r="G139" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F140" s="7">
-        <v>0</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C142" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F142" s="7">
-        <v>5</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K142" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L142" s="10"/>
+      <c r="E142" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="11">
+        <v>3</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I142" s="14">
+        <v>2</v>
+      </c>
+      <c r="J142" s="14">
+        <v>4</v>
+      </c>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F143" s="11">
+      <c r="C143" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F143" s="7">
         <v>3</v>
       </c>
-      <c r="G143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I143" s="14">
-        <v>2</v>
-      </c>
-      <c r="J143" s="14">
-        <v>4</v>
-      </c>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
+      <c r="G143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C144" s="7" t="s">
@@ -4361,22 +4451,22 @@
         <v>48</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F144" s="7">
         <v>3</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -4387,136 +4477,130 @@
         <v>48</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F145" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C146" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F146" s="7">
-        <v>1</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146" s="11">
+        <v>0</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F147" s="11">
-        <v>0</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
+      <c r="C147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="7">
+        <v>2</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C148" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F148" s="7">
-        <v>2</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I148" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A148" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
+      <c r="C149" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="18" t="s">
-        <v>11</v>
+      <c r="E150" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="G150" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -4526,17 +4610,20 @@
       <c r="D151" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="19" t="s">
-        <v>14</v>
+      <c r="E151" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="F151" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H151" s="10" t="s">
-        <v>15</v>
+      <c r="H151" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -4556,10 +4643,10 @@
         <v>12</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
@@ -4579,10 +4666,10 @@
         <v>12</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
@@ -4602,10 +4689,10 @@
         <v>12</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -4625,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -4639,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F156" s="7">
         <v>2</v>
@@ -4647,11 +4734,11 @@
       <c r="G156" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I156" s="16" t="s">
-        <v>101</v>
+      <c r="H156" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -4670,11 +4757,11 @@
       <c r="G157" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="10" t="s">
+      <c r="H157" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
@@ -4697,7 +4784,7 @@
         <v>17</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
@@ -4720,99 +4807,73 @@
         <v>17</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C160" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="7">
-        <v>2</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I160" s="9" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:R1"/>
-  </mergeCells>
   <dataValidations count="35">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="New Button" prompt="object path for New button" sqref="I91 I95 I100"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Login Link ObjectPath" prompt="path to the login link on the homepage" sqref="H91 H94:H96 H99:H101"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Login Button Object Path" prompt="path to the object" sqref="L142 E94 E99 E101"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password" prompt="password for the user specified" sqref="K142"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password Object Path" prompt="path to the object" sqref="J142"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserName Object Path" prompt="path to the username textbox" sqref="H142"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Iterations" prompt="Number of iterations (rows to read)" sqref="J134 J143 J79 J108"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start Row" prompt="Row to begin reading from" sqref="I134 I143 I79 I108"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data File" prompt="Filename.xlsx" sqref="H134 H143 H79 H108"/>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D139 D79 D117 D108 D87 D134">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="New Button" prompt="object path for New button" sqref="I90 I94 I99"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Login Link ObjectPath" prompt="path to the login link on the homepage" sqref="H90 H93:H95 H98:H100"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Login Button Object Path" prompt="path to the object" sqref="L141 E93 E98 E100"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password" prompt="password for the user specified" sqref="K141"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password Object Path" prompt="path to the object" sqref="J141"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserName Object Path" prompt="path to the username textbox" sqref="H141"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Iterations" prompt="Number of iterations (rows to read)" sqref="J133 J142 J78 J107"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start Row" prompt="Row to begin reading from" sqref="I133 I142 I78 I107"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data File" prompt="Filename.xlsx" sqref="H133 H142 H78 H107"/>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D138 D78 D116 D107 D86 D133">
       <formula1>"Looping"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Text to Validate" prompt="Enter the text to look for in the specified object" sqref="I116 I132 I86 I59 I72"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CheckValue" prompt="either checked or unchecked" sqref="I57 I114 I70 I13:I14 I5:I10 I17:I25 I28:I30"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Selection" prompt="The item to select from the dropdown" sqref="I54 I82 I111 I67"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Text Value" prompt="The text you wish to enter" sqref="I157:I160 I55:I56 I49:I50 I83:I84 I105:I106 I112:I113 I76:I77 I68:I69 I62:I63"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Object Definition" prompt="path to the object" sqref="H132 H157:H160 H80:H86 H75:H78 H104:H107 H109:H116 H151 H48:H59 H62:H72 H13:H14 H5:H10 H17:H25 H28:H30"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL" prompt="the URL to open" sqref="H47 H90 H93 H103 H150 H88 H74 H98 H61 H4 H12 H16 H27 H32:H37 H39:H43 H45"/>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G128 G140 G142 G135:G138 G98:G101 G132:G133 G88 G74:G78 G103:G107 G109:G116 G150:G151 G157:G160 G80:G86 G90:G91 G93:G96 G47:G59 G61:G72 G12:G14 G4:G10 G16:G25 G27:G30 G32:G37 G39:G43 G45">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Text to Validate" prompt="Enter the text to look for in the specified object" sqref="I115 I131 I85 I58 I71"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="CheckValue" prompt="either checked or unchecked" sqref="I56 I113 I69 I12:I13 I4:I9 I16:I24 I27:I29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Selection" prompt="The item to select from the dropdown" sqref="I53 I81 I110 I66"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Text Value" prompt="The text you wish to enter" sqref="I156:I159 I54:I55 I48:I49 I82:I83 I104:I105 I111:I112 I75:I76 I67:I68 I61:I62"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Object Definition" prompt="path to the object" sqref="H131 H156:H159 H79:H85 H74:H77 H103:H106 H108:H115 H150 H47:H58 H61:H71 H12:H13 H4:H9 H16:H24 H27:H29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL" prompt="the URL to open" sqref="H46 H89 H92 H102 H149 H87 H73 H97 H60 H3 H11 H15 H26 H31:H36 H38:H42 H44"/>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127 G139 G141 G134:G137 G97:G100 G131:G132 G87 G73:G77 G102:G106 G108:G115 G149:G150 G156:G159 G79:G85 G89:G90 G92:G95 G46:G58 G60:G71 G11:G13 G3:G9 G15:G24 G26:G29 G31:G36 G38:G42 G44">
       <formula1>"EndTest,Continue,EndTestCase,EndIteration"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D142 D135:D138 D98:D101 D132:D133 D140 D74:D78 D103:D107 D109:D116 D150:D151 D157:D160 D80:D86 D88 D90:D91 D93:D96 D47:D59 D61:D72 D12:D14 D4:D10 D16:D25 D27:D30 D32:D37 D39:D43 D45">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D141 D134:D137 D97:D100 D131:D132 D139 D73:D77 D102:D106 D108:D115 D149:D150 D156:D159 D79:D85 D87 D89:D90 D92:D95 D46:D58 D60:D71 D11:D13 D3:D9 D15:D24 D26:D29 D31:D36 D38:D42 D44">
       <formula1>"Common,UI"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98:C101 C132:C140 C74:C88 C103:C117 C150:C151 C157:C160 C90:C91 C93:C96 C47:C59 C61:C72 C12:C14 C4:C10 C16:C25 C27:C30 C32:C37 C39:C43 C45">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C97:C100 C131:C139 C73:C87 C102:C116 C149:C150 C156:C159 C89:C90 C92:C95 C46:C58 C60:C71 C11:C13 C3:C9 C15:C24 C26:C29 C31:C36 C38:C42 C44">
       <formula1>"Desktop,Core UAF,Mobile,Mobile Web,SAP,SalesForce"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C89 C119:C131 C142:C148 C73 C102 C92 C97 C60 C15 C3 C11 C26 C31 C38 C44">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C88 C118:C130 C141:C147 C72 C101 C91 C96 C59 C14 C2 C10 C25 C30 C37 C43">
       <formula1>",Desktop,Core UAF,Mobile,Mobile Web,SAP,SalesForce"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118 C141">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C117 C140">
       <formula1>",Desktop,Core UAF,Mobile,Mobile Web,SAP"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Last Name" prompt=" " sqref="I123 I125 I130 I138 I148"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="First Name" prompt=" " sqref="H123 H125 H130 H138 H148"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="name of contact to select from list" sqref="H122 H129 H137 H146"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Company Name" prompt="User's company" sqref="J121 J136 J128 J145"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="EMail" prompt="email for user" sqref="I121 I136 I128 I145"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserName" prompt="UserName to Validate" sqref="H121 H136 H128"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User Name" prompt="User Name assoicated with the UserId" sqref="J120 J127 J135 J144 H145"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Property" prompt="EXISTS_x000a_NOT_EXISTS" sqref="I120 I127 I135 I144"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserID" prompt="User value to search on" sqref="H120 H127 H135 H144"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password" prompt=" " sqref="I119 I126 I133"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User Name" prompt="registered Email address" sqref="H119 H126 H133 I142"/>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D148 D144:D146 D119:D131 D89 D73 D102 D46 D92 D97 D60 D15 D3 D11 D26 D31 D38 D44">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Last Name" prompt=" " sqref="I122 I124 I129 I137 I147"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="First Name" prompt=" " sqref="H122 H124 H129 H137 H147"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="name of contact to select from list" sqref="H121 H128 H136 H145"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Company Name" prompt="User's company" sqref="J120 J135 J127 J144"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="EMail" prompt="email for user" sqref="I120 I135 I127 I144"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserName" prompt="UserName to Validate" sqref="H120 H135 H127"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User Name" prompt="User Name assoicated with the UserId" sqref="J119 J126 J134 J143 H144"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Property" prompt="EXISTS_x000a_NOT_EXISTS" sqref="I119 I126 I134 I143"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="UserID" prompt="User value to search on" sqref="H119 H126 H134 H143"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Password" prompt=" " sqref="I118 I125 I132"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User Name" prompt="registered Email address" sqref="H118 H125 H132 I141"/>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D147 D143:D145 D118:D130 D88 D72 D101 D45 D91 D96 D59 D14 D2 D10 D25 D30 D37 D43">
       <formula1>",Common"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D147 D141 D143 D118">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D146 D140 D142 D117">
       <formula1>",Looping"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G119:G127 G46 G144:G146 G148 G129:G131 G89 G73 G102 G92 G97 G60 G15 G3 G11 G26 G31 G38 G44">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G118:G126 G45 G143:G145 G147 G128:G130 G88 G72 G101 G91 G96 G59 G14 G2 G10 G25 G30 G37 G43">
       <formula1>",EndTest,Continue,EndTestCase,EndIteration"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I121" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H27" r:id="rId3"/>
-    <hyperlink ref="H32" r:id="rId4" display="http://the-internet.herokuapp.com/dynamic_loading"/>
-    <hyperlink ref="H35" r:id="rId5" display="http://the-internet.herokuapp.com/dynamic_loading"/>
-    <hyperlink ref="H39" r:id="rId6" display="http://the-internet.herokuapp.com/dynamic_loading"/>
-    <hyperlink ref="H45" r:id="rId7" display="http://the-internet.herokuapp.com/dynamic_loading"/>
+    <hyperlink ref="I120" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId2"/>
+    <hyperlink ref="H26" r:id="rId3"/>
+    <hyperlink ref="H31" r:id="rId4" display="http://the-internet.herokuapp.com/dynamic_loading"/>
+    <hyperlink ref="H34" r:id="rId5" display="http://the-internet.herokuapp.com/dynamic_loading"/>
+    <hyperlink ref="H38" r:id="rId6" display="http://the-internet.herokuapp.com/dynamic_loading"/>
+    <hyperlink ref="H44" r:id="rId7" display="http://the-internet.herokuapp.com/dynamic_loading"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14400,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/SmokeTests.xlsx
+++ b/src/test/resources/SmokeTests.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="820" windowWidth="22460" windowHeight="14280"/>
+    <workbookView xWindow="420" yWindow="820" windowWidth="22460" windowHeight="14280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeTest" sheetId="5" r:id="rId1"/>
+    <sheet name="DoNotConsider" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="65">
   <si>
     <t>Student Name</t>
   </si>
@@ -231,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +267,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -315,7 +324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
@@ -367,13 +376,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -415,6 +428,10 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Loop" xfId="4"/>
     <cellStyle name="Loop Parameter" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,4 +1355,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>